--- a/策划文档/数值用表/MAGIC_language.xlsx
+++ b/策划文档/数值用表/MAGIC_language.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="245">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,231 +56,740 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_hero_name_1</t>
-  </si>
-  <si>
-    <t>周瑜1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhouyu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_name_2</t>
-  </si>
-  <si>
-    <t>周瑜2</t>
-  </si>
-  <si>
-    <t>zhouyu2</t>
-  </si>
-  <si>
-    <t>card_hero_name_3</t>
-  </si>
-  <si>
-    <t>周瑜3</t>
-  </si>
-  <si>
-    <t>zhouyu3</t>
-  </si>
-  <si>
-    <t>card_hero_name_4</t>
-  </si>
-  <si>
-    <t>周瑜4</t>
-  </si>
-  <si>
-    <t>zhouyu4</t>
-  </si>
-  <si>
-    <t>card_hero_name_5</t>
-  </si>
-  <si>
-    <t>周瑜5</t>
-  </si>
-  <si>
-    <t>zhouyu5</t>
-  </si>
-  <si>
-    <t>card_hero_name_6</t>
-  </si>
-  <si>
-    <t>周瑜6</t>
-  </si>
-  <si>
-    <t>zhouyu6</t>
-  </si>
-  <si>
-    <t>card_hero_name_7</t>
-  </si>
-  <si>
-    <t>周瑜7</t>
-  </si>
-  <si>
-    <t>zhouyu7</t>
-  </si>
-  <si>
-    <t>card_hero_name_8</t>
-  </si>
-  <si>
-    <t>周瑜8</t>
-  </si>
-  <si>
-    <t>zhouyu8</t>
-  </si>
-  <si>
-    <t>card_hero_name_9</t>
-  </si>
-  <si>
-    <t>周瑜9</t>
-  </si>
-  <si>
-    <t>zhouyu9</t>
-  </si>
-  <si>
-    <t>card_hero_name_10</t>
-  </si>
-  <si>
-    <t>周瑜10</t>
-  </si>
-  <si>
-    <t>zhouyu10</t>
-  </si>
-  <si>
-    <t>card_hero_name_11</t>
-  </si>
-  <si>
-    <t>周瑜11</t>
-  </si>
-  <si>
-    <t>zhouyu11</t>
-  </si>
-  <si>
-    <t>card_hero_name_12</t>
-  </si>
-  <si>
-    <t>周瑜12</t>
-  </si>
-  <si>
-    <t>zhouyu12</t>
-  </si>
-  <si>
-    <t>card_hero_name_13</t>
-  </si>
-  <si>
-    <t>周瑜13</t>
-  </si>
-  <si>
-    <t>zhouyu13</t>
-  </si>
-  <si>
-    <t>card_hero_name_14</t>
-  </si>
-  <si>
-    <t>周瑜14</t>
-  </si>
-  <si>
-    <t>zhouyu14</t>
-  </si>
-  <si>
-    <t>card_hero_name_15</t>
-  </si>
-  <si>
-    <t>周瑜15</t>
-  </si>
-  <si>
-    <t>zhouyu15</t>
-  </si>
-  <si>
-    <t>card_hero_name_16</t>
-  </si>
-  <si>
-    <t>周瑜16</t>
-  </si>
-  <si>
-    <t>zhouyu16</t>
-  </si>
-  <si>
-    <t>card_hero_name_17</t>
-  </si>
-  <si>
-    <t>周瑜17</t>
-  </si>
-  <si>
-    <t>zhouyu17</t>
-  </si>
-  <si>
-    <t>card_hero_name_18</t>
-  </si>
-  <si>
-    <t>周瑜18</t>
-  </si>
-  <si>
-    <t>zhouyu18</t>
-  </si>
-  <si>
-    <t>card_hero_name_19</t>
-  </si>
-  <si>
-    <t>周瑜19</t>
-  </si>
-  <si>
-    <t>zhouyu19</t>
-  </si>
-  <si>
-    <t>card_hero_name_20</t>
-  </si>
-  <si>
-    <t>周瑜20</t>
-  </si>
-  <si>
-    <t>zhouyu20</t>
-  </si>
-  <si>
-    <t>card_hero_name_21</t>
-  </si>
-  <si>
-    <t>周瑜21</t>
-  </si>
-  <si>
-    <t>zhouyu21</t>
-  </si>
-  <si>
-    <t>card_hero_name_22</t>
-  </si>
-  <si>
-    <t>周瑜22</t>
-  </si>
-  <si>
-    <t>zhouyu22</t>
-  </si>
-  <si>
-    <t>card_hero_name_23</t>
-  </si>
-  <si>
-    <t>周瑜23</t>
-  </si>
-  <si>
-    <t>zhouyu23</t>
-  </si>
-  <si>
-    <t>card_hero_name_24</t>
-  </si>
-  <si>
-    <t>周瑜24</t>
-  </si>
-  <si>
-    <t>zhouyu24</t>
-  </si>
-  <si>
-    <t>card_hero_name_25</t>
-  </si>
-  <si>
-    <t>周瑜25</t>
-  </si>
-  <si>
-    <t>zhouyu25</t>
+    <t>equip_name_70010</t>
+  </si>
+  <si>
+    <t>equip_name_70011</t>
+  </si>
+  <si>
+    <t>equip_name_70012</t>
+  </si>
+  <si>
+    <t>equip_name_70013</t>
+  </si>
+  <si>
+    <t>equip_name_70014</t>
+  </si>
+  <si>
+    <t>equip_name_70015</t>
+  </si>
+  <si>
+    <t>equip_name_70016</t>
+  </si>
+  <si>
+    <t>equip_name_70017</t>
+  </si>
+  <si>
+    <t>equip_name_70018</t>
+  </si>
+  <si>
+    <t>equip_name_70019</t>
+  </si>
+  <si>
+    <t>equip_name_70020</t>
+  </si>
+  <si>
+    <t>equip_name_70021</t>
+  </si>
+  <si>
+    <t>equip_name_70022</t>
+  </si>
+  <si>
+    <t>equip_name_70023</t>
+  </si>
+  <si>
+    <t>equip_name_70024</t>
+  </si>
+  <si>
+    <t>equip_name_70025</t>
+  </si>
+  <si>
+    <t>equip_name_70026</t>
+  </si>
+  <si>
+    <t>equip_name_70027</t>
+  </si>
+  <si>
+    <t>equip_name_70028</t>
+  </si>
+  <si>
+    <t>equip_name_70029</t>
+  </si>
+  <si>
+    <t>equip_name_70030</t>
+  </si>
+  <si>
+    <t>equip_name_70031</t>
+  </si>
+  <si>
+    <t>equip_name_70032</t>
+  </si>
+  <si>
+    <t>equip_name_70033</t>
+  </si>
+  <si>
+    <t>equip_name_70034</t>
+  </si>
+  <si>
+    <t>equip_name_70035</t>
+  </si>
+  <si>
+    <t>equip_name_70036</t>
+  </si>
+  <si>
+    <t>equip_name_70037</t>
+  </si>
+  <si>
+    <t>equip_name_70038</t>
+  </si>
+  <si>
+    <t>equip_name_70039</t>
+  </si>
+  <si>
+    <t>equip_name_70040</t>
+  </si>
+  <si>
+    <t>equip_name_70041</t>
+  </si>
+  <si>
+    <t>equip_name_70042</t>
+  </si>
+  <si>
+    <t>equip_name_70043</t>
+  </si>
+  <si>
+    <t>equip_name_70044</t>
+  </si>
+  <si>
+    <t>equip_name_70045</t>
+  </si>
+  <si>
+    <t>equip_name_70046</t>
+  </si>
+  <si>
+    <t>equip_name_70047</t>
+  </si>
+  <si>
+    <t>equip_name_70048</t>
+  </si>
+  <si>
+    <t>equip_name_70049</t>
+  </si>
+  <si>
+    <t>equip_name_70050</t>
+  </si>
+  <si>
+    <t>equip_name_70051</t>
+  </si>
+  <si>
+    <t>equip_name_70052</t>
+  </si>
+  <si>
+    <t>equip_name_70053</t>
+  </si>
+  <si>
+    <t>equip_name_70054</t>
+  </si>
+  <si>
+    <t>equip_name_70055</t>
+  </si>
+  <si>
+    <t>equip_name_70056</t>
+  </si>
+  <si>
+    <t>equip_name_70057</t>
+  </si>
+  <si>
+    <t>equip_name_70058</t>
+  </si>
+  <si>
+    <t>equip_name_70059</t>
+  </si>
+  <si>
+    <t>equip_des_70010</t>
+  </si>
+  <si>
+    <t>equip_des_70011</t>
+  </si>
+  <si>
+    <t>equip_des_70012</t>
+  </si>
+  <si>
+    <t>equip_des_70013</t>
+  </si>
+  <si>
+    <t>equip_des_70014</t>
+  </si>
+  <si>
+    <t>equip_des_70015</t>
+  </si>
+  <si>
+    <t>equip_des_70016</t>
+  </si>
+  <si>
+    <t>equip_des_70017</t>
+  </si>
+  <si>
+    <t>equip_des_70018</t>
+  </si>
+  <si>
+    <t>equip_des_70019</t>
+  </si>
+  <si>
+    <t>equip_des_70020</t>
+  </si>
+  <si>
+    <t>equip_des_70021</t>
+  </si>
+  <si>
+    <t>equip_des_70022</t>
+  </si>
+  <si>
+    <t>equip_des_70023</t>
+  </si>
+  <si>
+    <t>equip_des_70024</t>
+  </si>
+  <si>
+    <t>equip_des_70025</t>
+  </si>
+  <si>
+    <t>equip_des_70026</t>
+  </si>
+  <si>
+    <t>equip_des_70027</t>
+  </si>
+  <si>
+    <t>equip_des_70028</t>
+  </si>
+  <si>
+    <t>equip_des_70029</t>
+  </si>
+  <si>
+    <t>equip_des_70030</t>
+  </si>
+  <si>
+    <t>equip_des_70031</t>
+  </si>
+  <si>
+    <t>equip_des_70032</t>
+  </si>
+  <si>
+    <t>equip_des_70033</t>
+  </si>
+  <si>
+    <t>equip_des_70034</t>
+  </si>
+  <si>
+    <t>equip_des_70035</t>
+  </si>
+  <si>
+    <t>equip_des_70036</t>
+  </si>
+  <si>
+    <t>equip_des_70037</t>
+  </si>
+  <si>
+    <t>equip_des_70038</t>
+  </si>
+  <si>
+    <t>equip_des_70039</t>
+  </si>
+  <si>
+    <t>equip_des_70040</t>
+  </si>
+  <si>
+    <t>equip_des_70041</t>
+  </si>
+  <si>
+    <t>equip_des_70042</t>
+  </si>
+  <si>
+    <t>equip_des_70043</t>
+  </si>
+  <si>
+    <t>equip_des_70044</t>
+  </si>
+  <si>
+    <t>equip_des_70045</t>
+  </si>
+  <si>
+    <t>equip_des_70046</t>
+  </si>
+  <si>
+    <t>equip_des_70047</t>
+  </si>
+  <si>
+    <t>equip_des_70048</t>
+  </si>
+  <si>
+    <t>equip_des_70049</t>
+  </si>
+  <si>
+    <t>equip_des_70050</t>
+  </si>
+  <si>
+    <t>equip_des_70051</t>
+  </si>
+  <si>
+    <t>equip_des_70052</t>
+  </si>
+  <si>
+    <t>equip_des_70053</t>
+  </si>
+  <si>
+    <t>equip_des_70054</t>
+  </si>
+  <si>
+    <t>equip_des_70055</t>
+  </si>
+  <si>
+    <t>equip_des_70056</t>
+  </si>
+  <si>
+    <t>equip_des_70057</t>
+  </si>
+  <si>
+    <t>equip_des_70058</t>
+  </si>
+  <si>
+    <t>equip_des_70059</t>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神盔(物)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神护腿(物)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神戒(物)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神盔(法)</t>
+  </si>
+  <si>
+    <t>风神护腿(法)</t>
+  </si>
+  <si>
+    <t>风神戒(法)</t>
+  </si>
+  <si>
+    <t>水神剑</t>
+  </si>
+  <si>
+    <t>水神盔(物)</t>
+  </si>
+  <si>
+    <t>水神护腿(物)</t>
+  </si>
+  <si>
+    <t>水神戒(物)</t>
+  </si>
+  <si>
+    <t>水神甲</t>
+  </si>
+  <si>
+    <t>水神靴</t>
+  </si>
+  <si>
+    <t>水神杖</t>
+  </si>
+  <si>
+    <t>水神盔(法)</t>
+  </si>
+  <si>
+    <t>水神护腿(法)</t>
+  </si>
+  <si>
+    <t>水神戒(法)</t>
+  </si>
+  <si>
+    <t>火神剑</t>
+  </si>
+  <si>
+    <t>火神盔(物)</t>
+  </si>
+  <si>
+    <t>火神护腿(物)</t>
+  </si>
+  <si>
+    <t>火神戒(物)</t>
+  </si>
+  <si>
+    <t>火神甲</t>
+  </si>
+  <si>
+    <t>火神靴</t>
+  </si>
+  <si>
+    <t>火神杖</t>
+  </si>
+  <si>
+    <t>火神盔(法)</t>
+  </si>
+  <si>
+    <t>火神护腿(法)</t>
+  </si>
+  <si>
+    <t>火神戒(法)</t>
+  </si>
+  <si>
+    <t>雷神剑</t>
+  </si>
+  <si>
+    <t>雷神盔(物)</t>
+  </si>
+  <si>
+    <t>雷神护腿(物)</t>
+  </si>
+  <si>
+    <t>雷神戒(物)</t>
+  </si>
+  <si>
+    <t>雷神甲</t>
+  </si>
+  <si>
+    <t>雷神靴</t>
+  </si>
+  <si>
+    <t>雷神杖</t>
+  </si>
+  <si>
+    <t>雷神盔(法)</t>
+  </si>
+  <si>
+    <t>雷神护腿(法)</t>
+  </si>
+  <si>
+    <t>雷神戒(法)</t>
+  </si>
+  <si>
+    <t>土神剑</t>
+  </si>
+  <si>
+    <t>土神盔(物)</t>
+  </si>
+  <si>
+    <t>土神护腿(物)</t>
+  </si>
+  <si>
+    <t>土神戒(物)</t>
+  </si>
+  <si>
+    <t>土神甲</t>
+  </si>
+  <si>
+    <t>土神靴</t>
+  </si>
+  <si>
+    <t>土神杖</t>
+  </si>
+  <si>
+    <t>土神盔(法)</t>
+  </si>
+  <si>
+    <t>土神护腿(法)</t>
+  </si>
+  <si>
+    <t>土神戒(法)</t>
+  </si>
+  <si>
+    <t>土神剑一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神盔一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神护腿一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神戒一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神甲一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神靴一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土神杖一阶装备可熔炼为二阶装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神剑二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神盔二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神护腿二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神戒二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神甲二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神靴二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>风神杖二阶装备可熔炼为三阶装备</t>
+  </si>
+  <si>
+    <t>水神剑三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神盔三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神护腿三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神戒三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神甲三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神靴三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>水神杖三阶装备可熔炼为四阶装备</t>
+  </si>
+  <si>
+    <t>火神剑四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神盔四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神护腿四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神戒四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神甲四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神靴四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>火神杖四阶装备可熔炼为五阶装备</t>
+  </si>
+  <si>
+    <t>雷神剑五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神盔五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神护腿五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神戒五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神甲五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神靴五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>雷神杖五阶装备可熔炼为英雄专属装备</t>
+  </si>
+  <si>
+    <t>equip_part_weapon</t>
+  </si>
+  <si>
+    <t>equip_part_head</t>
+  </si>
+  <si>
+    <t>equip_part_leg</t>
+  </si>
+  <si>
+    <t>equip_part_finger</t>
+  </si>
+  <si>
+    <t>equip_part_body</t>
+  </si>
+  <si>
+    <t>equip_part_foot</t>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_human</t>
+  </si>
+  <si>
+    <t>card_hero_race_ghost</t>
+  </si>
+  <si>
+    <t>card_hero_race_god</t>
+  </si>
+  <si>
+    <t>card_hero_race_devil</t>
+  </si>
+  <si>
+    <t>card_hero_race_goblin</t>
+  </si>
+  <si>
+    <t>card_hero_race_dragon</t>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>hero_element_wind</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>hero_element_fire</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>hero_element_thunder</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>hero_element_earth</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>hero_element_water</t>
+  </si>
+  <si>
+    <t>人族</t>
+  </si>
+  <si>
+    <t>鬼族</t>
+  </si>
+  <si>
+    <t>神族</t>
+  </si>
+  <si>
+    <t>魔族</t>
+  </si>
+  <si>
+    <t>妖族</t>
+  </si>
+  <si>
+    <t>龙族</t>
+  </si>
+  <si>
+    <t>point_force</t>
+  </si>
+  <si>
+    <t>point_brains</t>
+  </si>
+  <si>
+    <t>point_agility</t>
+  </si>
+  <si>
+    <t>point_spirit</t>
+  </si>
+  <si>
+    <t>point_physique</t>
+  </si>
+  <si>
+    <t>属性点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -326,7 +835,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,22 +1138,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,13 +1162,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -666,15 +1179,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -685,8 +1201,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -694,13 +1213,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -708,164 +1230,164 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -873,13 +1395,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -887,13 +1409,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -901,13 +1423,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -915,13 +1437,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -929,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -943,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -957,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -971,13 +1493,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -985,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -999,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1013,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1027,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -1041,13 +1563,1371 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
